--- a/1-data/TMP_FEOM_TOC/OneDrive_1_3-21-2024/20240319_Readme_TMP_FEOM_CO_7.xlsx
+++ b/1-data/TMP_FEOM_TOC/OneDrive_1_3-21-2024/20240319_Readme_TMP_FEOM_CO_7.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olou646\tempest-exp-feom-ConnorSULI\1-data\TMP_FEOM_TOC\OneDrive_1_3-21-2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A74D7DDB-25FC-4CA9-B834-024AFF9FAE18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6ABF909-7861-4B1C-BA63-B0E99995DA73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FB0433CF-543D-4FDA-A33B-D7DF0F122BC6}"/>
+    <workbookView xWindow="9600" yWindow="0" windowWidth="9600" windowHeight="10200" xr2:uid="{FB0433CF-543D-4FDA-A33B-D7DF0F122BC6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -542,8 +542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{280C1DDF-EA1C-4744-B8A7-879B45D19C4D}">
   <dimension ref="A1:M113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
